--- a/src/common/templates/11.Sealing.xlsx
+++ b/src/common/templates/11.Sealing.xlsx
@@ -8,13 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D4E5CC4-D610-4845-9701-689CB46677AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9984C1D-773E-47CA-8684-2044324563A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="570" windowWidth="19395" windowHeight="14940" xr2:uid="{4D09F8EE-03B8-4266-9ABE-BF29521CAAED}"/>
+    <workbookView xWindow="-20055" yWindow="120" windowWidth="17340" windowHeight="15480" xr2:uid="{4D09F8EE-03B8-4266-9ABE-BF29521CAAED}"/>
   </bookViews>
   <sheets>
-    <sheet name="실링 작업 일지_수정" sheetId="1" r:id="rId1"/>
+    <sheet name="실링 작업 일지" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="approver">'실링 작업 일지'!$L$5</definedName>
+    <definedName name="cleanCheck">'실링 작업 일지'!$G$40</definedName>
+    <definedName name="equipmentCheckResult">'실링 작업 일지'!$C$37</definedName>
+    <definedName name="equipmentIssue">'실링 작업 일지'!$K$37</definedName>
+    <definedName name="jigNumber">'실링 작업 일지'!$G$37</definedName>
+    <definedName name="line">'실링 작업 일지'!$C$9</definedName>
+    <definedName name="manufactureDate">'실링 작업 일지'!$C$7</definedName>
+    <definedName name="plant">'실링 작업 일지'!$G$9</definedName>
+    <definedName name="productionId">'실링 작업 일지'!$G$7</definedName>
+    <definedName name="remark">'실링 작업 일지'!$A$43</definedName>
+    <definedName name="reviewer">'실링 작업 일지'!$K$5</definedName>
+    <definedName name="safety">'실링 작업 일지'!$K$40</definedName>
+    <definedName name="shift">'실링 작업 일지'!$K$9</definedName>
+    <definedName name="tempHumi">'실링 작업 일지'!$C$40</definedName>
+    <definedName name="worker">'실링 작업 일지'!$K$7</definedName>
+    <definedName name="writer">'실링 작업 일지'!$J$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -495,12 +513,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -516,9 +528,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -528,52 +552,79 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -582,46 +633,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -634,12 +661,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -668,9 +689,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1008,811 +1026,810 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743B18B8-6290-477B-AB12-3A3D0D1B8C31}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32:L33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="12" width="9" style="59"/>
+    <col min="10" max="12" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="2" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="8" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="8" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="8" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="8" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="3" t="s">
+      <c r="J9" s="9"/>
+      <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="7"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="8" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="9" t="s">
+      <c r="H12" s="9"/>
+      <c r="I12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="8" t="s">
+      <c r="J12" s="11"/>
+      <c r="K12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="8"/>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="7"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15" t="s">
+      <c r="D17" s="15"/>
+      <c r="E17" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="13" t="s">
+      <c r="F17" s="22"/>
+      <c r="G17" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="17" t="s">
+      <c r="H17" s="15"/>
+      <c r="I17" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="14"/>
+      <c r="L17" s="15"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="19"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="7"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="13" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="17" t="s">
+      <c r="D26" s="15"/>
+      <c r="E26" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="28" t="s">
+      <c r="F26" s="22"/>
+      <c r="G26" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="15" t="s">
+      <c r="H26" s="40"/>
+      <c r="I26" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="16"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="22"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="21"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="24"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="36"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="32"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="41"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="34"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="36"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="32"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="41"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="34"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="36"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="32"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="41"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="34"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="9" t="s">
+      <c r="B34" s="15"/>
+      <c r="C34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9" t="s">
+      <c r="D34" s="11"/>
+      <c r="E34" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="24" t="s">
+      <c r="F34" s="11"/>
+      <c r="G34" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="34"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="29"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="39"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="30"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="7"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="10" t="s">
+      <c r="B37" s="12"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="10" t="s">
+      <c r="F37" s="12"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J37" s="10"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="49"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="46"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="7"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="10" t="s">
+      <c r="B40" s="12"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="10" t="s">
+      <c r="F40" s="12"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="J40" s="10"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="7"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="5"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="50"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="52"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="53"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="53"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="55"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="56"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="53"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="55"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="56"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="53"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="55"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="56"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="53"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="55"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="56"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="53"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="55"/>
+      <c r="A48" s="54"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="56"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="56"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="57"/>
-      <c r="L49" s="58"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="95">
@@ -1823,11 +1840,6 @@
     <mergeCell ref="G40:H41"/>
     <mergeCell ref="I40:J41"/>
     <mergeCell ref="K40:L41"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:F38"/>
-    <mergeCell ref="G37:H38"/>
-    <mergeCell ref="I37:J38"/>
     <mergeCell ref="K37:L38"/>
     <mergeCell ref="A34:B35"/>
     <mergeCell ref="C34:D34"/>
@@ -1835,6 +1847,11 @@
     <mergeCell ref="G34:L35"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:F38"/>
+    <mergeCell ref="G37:H38"/>
+    <mergeCell ref="I37:J38"/>
     <mergeCell ref="A30:B31"/>
     <mergeCell ref="C30:D31"/>
     <mergeCell ref="E30:F31"/>
@@ -1883,11 +1900,6 @@
     <mergeCell ref="G17:H18"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="I14:J15"/>
     <mergeCell ref="K14:L15"/>
     <mergeCell ref="A12:B13"/>
     <mergeCell ref="C12:D13"/>
@@ -1895,11 +1907,11 @@
     <mergeCell ref="G12:H13"/>
     <mergeCell ref="I12:J13"/>
     <mergeCell ref="K12:L13"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="I14:J15"/>
     <mergeCell ref="K9:L10"/>
     <mergeCell ref="A1:I5"/>
     <mergeCell ref="J2:J4"/>
@@ -1911,6 +1923,11 @@
     <mergeCell ref="G7:H8"/>
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="K7:L8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="I9:J10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/common/templates/11.Sealing.xlsx
+++ b/src/common/templates/11.Sealing.xlsx
@@ -8,28 +8,63 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9984C1D-773E-47CA-8684-2044324563A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0608557B-B71D-4932-A273-956F44FA9FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20055" yWindow="120" windowWidth="17340" windowHeight="15480" xr2:uid="{4D09F8EE-03B8-4266-9ABE-BF29521CAAED}"/>
+    <workbookView xWindow="-16335" yWindow="645" windowWidth="15495" windowHeight="14835" xr2:uid="{4D09F8EE-03B8-4266-9ABE-BF29521CAAED}"/>
   </bookViews>
   <sheets>
     <sheet name="실링 작업 일지" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="approver">'실링 작업 일지'!$L$5</definedName>
+    <definedName name="bottomChecklist">'실링 작업 일지'!$I$32</definedName>
+    <definedName name="bottomPressure">'실링 작업 일지'!$E$32</definedName>
+    <definedName name="bottomSealingTime">'실링 작업 일지'!$G$32</definedName>
+    <definedName name="bottomTemperature">'실링 작업 일지'!$C$32</definedName>
     <definedName name="cleanCheck">'실링 작업 일지'!$G$40</definedName>
     <definedName name="equipmentCheckResult">'실링 작업 일지'!$C$37</definedName>
     <definedName name="equipmentIssue">'실링 작업 일지'!$K$37</definedName>
+    <definedName name="hipot3DefectQuantity">'실링 작업 일지'!$I$23</definedName>
+    <definedName name="hipot3DefectRate">'실링 작업 일지'!$K$23</definedName>
+    <definedName name="hipot3DiscardQuantity">'실링 작업 일지'!$J$23</definedName>
+    <definedName name="hipot3GoodQuantity">'실링 작업 일지'!$G$23</definedName>
+    <definedName name="hipot3JrNumber">'실링 작업 일지'!$C$23</definedName>
+    <definedName name="hipot3WorkQuantity">'실링 작업 일지'!$E$23</definedName>
     <definedName name="jigNumber">'실링 작업 일지'!$G$37</definedName>
     <definedName name="line">'실링 작업 일지'!$C$9</definedName>
     <definedName name="manufactureDate">'실링 작업 일지'!$C$7</definedName>
     <definedName name="plant">'실링 작업 일지'!$G$9</definedName>
+    <definedName name="pouchDepth">'실링 작업 일지'!$G$14</definedName>
+    <definedName name="pouchInputQuantity">'실링 작업 일지'!$I$14</definedName>
+    <definedName name="pouchLot">'실링 작업 일지'!$C$14</definedName>
+    <definedName name="pouchManufacturer">'실링 작업 일지'!$E$14</definedName>
+    <definedName name="pouchUsage">'실링 작업 일지'!$K$14</definedName>
     <definedName name="productionId">'실링 작업 일지'!$G$7</definedName>
     <definedName name="remark">'실링 작업 일지'!$A$43</definedName>
     <definedName name="reviewer">'실링 작업 일지'!$K$5</definedName>
     <definedName name="safety">'실링 작업 일지'!$K$40</definedName>
     <definedName name="shift">'실링 작업 일지'!$K$9</definedName>
+    <definedName name="sideChecklist">'실링 작업 일지'!$I$30</definedName>
+    <definedName name="sideDefectQuantity">'실링 작업 일지'!$I$21</definedName>
+    <definedName name="sideDefectRate">'실링 작업 일지'!$K$21</definedName>
+    <definedName name="sideDiscardQuantity">'실링 작업 일지'!$J$21</definedName>
+    <definedName name="sideGoodQuantity">'실링 작업 일지'!$G$21</definedName>
+    <definedName name="sideJrNumber">'실링 작업 일지'!$C$21</definedName>
+    <definedName name="sidePressure">'실링 작업 일지'!$E$30</definedName>
+    <definedName name="sideSealingTime">'실링 작업 일지'!$G$30</definedName>
+    <definedName name="sideTemperature">'실링 작업 일지'!$C$30</definedName>
+    <definedName name="sideWorkQuantity">'실링 작업 일지'!$E$21</definedName>
     <definedName name="tempHumi">'실링 작업 일지'!$C$40</definedName>
+    <definedName name="topChecklist">'실링 작업 일지'!$I$28</definedName>
+    <definedName name="topDefectQuantity">'실링 작업 일지'!$I$19</definedName>
+    <definedName name="topDefectRate">'실링 작업 일지'!$K$19</definedName>
+    <definedName name="topDiscardQuantity">'실링 작업 일지'!$J$19</definedName>
+    <definedName name="topGoodQuantity">'실링 작업 일지'!$G$19</definedName>
+    <definedName name="topJrNumber">'실링 작업 일지'!$C$19</definedName>
+    <definedName name="topPressure">'실링 작업 일지'!$E$28</definedName>
+    <definedName name="topSealingTime">'실링 작업 일지'!$G$28</definedName>
+    <definedName name="topTemperature">'실링 작업 일지'!$C$28</definedName>
+    <definedName name="topWorkQuantity">'실링 작업 일지'!$E$19</definedName>
     <definedName name="worker">'실링 작업 일지'!$K$7</definedName>
     <definedName name="writer">'실링 작업 일지'!$J$5</definedName>
   </definedNames>
@@ -531,164 +566,164 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1031,7 +1066,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:L10"/>
+      <selection activeCell="G28" sqref="G28:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1040,17 +1075,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1062,57 +1097,57 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1134,74 +1169,74 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="9" t="s">
+      <c r="F7" s="34"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="9" t="s">
+      <c r="F9" s="34"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="7" t="s">
+      <c r="J9" s="34"/>
+      <c r="K9" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="7"/>
+      <c r="L9" s="58"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -1220,74 +1255,74 @@
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="23"/>
+      <c r="E12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="9" t="s">
+      <c r="F12" s="23"/>
+      <c r="G12" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="11" t="s">
+      <c r="H12" s="34"/>
+      <c r="I12" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="9" t="s">
+      <c r="J12" s="23"/>
+      <c r="K12" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="9"/>
+      <c r="L12" s="34"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -1306,136 +1341,136 @@
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="14" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="21" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="14" t="s">
+      <c r="F17" s="42"/>
+      <c r="G17" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="25" t="s">
+      <c r="H17" s="20"/>
+      <c r="I17" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="J17" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="15"/>
+      <c r="L17" s="20"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="17"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -1454,168 +1489,168 @@
       <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="14" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="25" t="s">
+      <c r="D26" s="20"/>
+      <c r="E26" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="39" t="s">
+      <c r="F26" s="42"/>
+      <c r="G26" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="40"/>
-      <c r="I26" s="21" t="s">
+      <c r="H26" s="46"/>
+      <c r="I26" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="22"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="42"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="24"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="44"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="32"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="36"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="34"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="38"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="32"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="36"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="34"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="38"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="32"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="36"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="34"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="38"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="11" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
+      <c r="D34" s="23"/>
+      <c r="E34" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="19" t="s">
+      <c r="F34" s="23"/>
+      <c r="G34" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="29"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="26"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="30"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="29"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
@@ -1634,38 +1669,38 @@
       <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="12" t="s">
+      <c r="B37" s="16"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="12" t="s">
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="J37" s="12"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="46"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="17"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
@@ -1684,38 +1719,38 @@
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="12" t="s">
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="12" t="s">
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J40" s="12"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
@@ -1734,184 +1769,105 @@
       <c r="L42" s="5"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="51"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="53"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="54"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="56"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="12"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="54"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="56"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="12"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="54"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="55"/>
-      <c r="L46" s="56"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="12"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="54"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="56"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="12"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="54"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="55"/>
-      <c r="L48" s="56"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="12"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="57"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="59"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="A43:L49"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:H41"/>
-    <mergeCell ref="I40:J41"/>
-    <mergeCell ref="K40:L41"/>
-    <mergeCell ref="K37:L38"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:L35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:F38"/>
-    <mergeCell ref="G37:H38"/>
-    <mergeCell ref="I37:J38"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:H31"/>
-    <mergeCell ref="I30:L31"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="I32:L33"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:H27"/>
-    <mergeCell ref="I26:L27"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:H29"/>
-    <mergeCell ref="I28:L29"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="G23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K17:L18"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="G19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:L20"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="I14:J15"/>
     <mergeCell ref="K9:L10"/>
     <mergeCell ref="A1:I5"/>
     <mergeCell ref="J2:J4"/>
@@ -1928,6 +1884,85 @@
     <mergeCell ref="E9:F10"/>
     <mergeCell ref="G9:H10"/>
     <mergeCell ref="I9:J10"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:H29"/>
+    <mergeCell ref="I28:L29"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:H27"/>
+    <mergeCell ref="I26:L27"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="I32:L33"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:H31"/>
+    <mergeCell ref="I30:L31"/>
+    <mergeCell ref="K37:L38"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:L35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:F38"/>
+    <mergeCell ref="G37:H38"/>
+    <mergeCell ref="I37:J38"/>
+    <mergeCell ref="A43:L49"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:H41"/>
+    <mergeCell ref="I40:J41"/>
+    <mergeCell ref="K40:L41"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/common/templates/11.Sealing.xlsx
+++ b/src/common/templates/11.Sealing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0608557B-B71D-4932-A273-956F44FA9FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EB34AE-86E1-40E4-B5F3-435ED6D38A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16335" yWindow="645" windowWidth="15495" windowHeight="14835" xr2:uid="{4D09F8EE-03B8-4266-9ABE-BF29521CAAED}"/>
+    <workbookView xWindow="1875" yWindow="615" windowWidth="21390" windowHeight="14940" xr2:uid="{4D09F8EE-03B8-4266-9ABE-BF29521CAAED}"/>
   </bookViews>
   <sheets>
     <sheet name="실링 작업 일지" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>실링 작업 일지</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -280,6 +280,16 @@
   </si>
   <si>
     <t>7. 비고 / 특이사항</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">※ 불량 현황
+- Hi-pot : 
+- 무게 : 
+- 두께 : 
+- Alignment : 
+※ 특이 사항
+</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -566,8 +576,137 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -593,137 +732,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1065,8 +1075,8 @@
   </sheetPr>
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28:H29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1075,17 +1085,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1097,57 +1107,57 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1169,74 +1179,74 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="34" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="34" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="34" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="34" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="58" t="s">
+      <c r="J9" s="9"/>
+      <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="58"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -1255,74 +1265,74 @@
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="34" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="23" t="s">
+      <c r="H12" s="9"/>
+      <c r="I12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="34" t="s">
+      <c r="J12" s="11"/>
+      <c r="K12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="34"/>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -1341,136 +1351,136 @@
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="49" t="s">
+      <c r="D17" s="15"/>
+      <c r="E17" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="19" t="s">
+      <c r="F17" s="22"/>
+      <c r="G17" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="41" t="s">
+      <c r="H17" s="15"/>
+      <c r="I17" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="41" t="s">
+      <c r="J17" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="K17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="20"/>
+      <c r="L17" s="15"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -1489,168 +1499,168 @@
       <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="19" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="41" t="s">
+      <c r="D26" s="15"/>
+      <c r="E26" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="45" t="s">
+      <c r="F26" s="22"/>
+      <c r="G26" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="46"/>
-      <c r="I26" s="49" t="s">
+      <c r="H26" s="40"/>
+      <c r="I26" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="42"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="22"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="44"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="24"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="36"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="32"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="38"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="34"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="36"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="32"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="38"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="34"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="36"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="32"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="38"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="34"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="23" t="s">
+      <c r="B34" s="15"/>
+      <c r="C34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23" t="s">
+      <c r="D34" s="11"/>
+      <c r="E34" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="24" t="s">
+      <c r="F34" s="11"/>
+      <c r="G34" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="26"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="29"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="29"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="30"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
@@ -1669,38 +1679,38 @@
       <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="16" t="s">
+      <c r="B37" s="12"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="16" t="s">
+      <c r="F37" s="12"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J37" s="16"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="17"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="46"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
@@ -1719,38 +1729,38 @@
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="16" t="s">
+      <c r="B40" s="12"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="16" t="s">
+      <c r="F40" s="12"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="J40" s="16"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
@@ -1769,105 +1779,186 @@
       <c r="L42" s="5"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="9"/>
+      <c r="A43" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="52"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="12"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="55"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="12"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="55"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="12"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="55"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="12"/>
+      <c r="A47" s="53"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="55"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="12"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="55"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="15"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="95">
+    <mergeCell ref="A43:L49"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:H41"/>
+    <mergeCell ref="I40:J41"/>
+    <mergeCell ref="K40:L41"/>
+    <mergeCell ref="K37:L38"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:L35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:F38"/>
+    <mergeCell ref="G37:H38"/>
+    <mergeCell ref="I37:J38"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:H31"/>
+    <mergeCell ref="I30:L31"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="I32:L33"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:H27"/>
+    <mergeCell ref="I26:L27"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:H29"/>
+    <mergeCell ref="I28:L29"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="I14:J15"/>
     <mergeCell ref="K9:L10"/>
     <mergeCell ref="A1:I5"/>
     <mergeCell ref="J2:J4"/>
@@ -1884,85 +1975,6 @@
     <mergeCell ref="E9:F10"/>
     <mergeCell ref="G9:H10"/>
     <mergeCell ref="I9:J10"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="K17:L18"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="G19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:L20"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="G23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:H29"/>
-    <mergeCell ref="I28:L29"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:H27"/>
-    <mergeCell ref="I26:L27"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="I32:L33"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:H31"/>
-    <mergeCell ref="I30:L31"/>
-    <mergeCell ref="K37:L38"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:L35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:F38"/>
-    <mergeCell ref="G37:H38"/>
-    <mergeCell ref="I37:J38"/>
-    <mergeCell ref="A43:L49"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:H41"/>
-    <mergeCell ref="I40:J41"/>
-    <mergeCell ref="K40:L41"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/common/templates/11.Sealing.xlsx
+++ b/src/common/templates/11.Sealing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EB34AE-86E1-40E4-B5F3-435ED6D38A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00C342F-196E-4DBF-AEAA-14E9C6E810EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="615" windowWidth="21390" windowHeight="14940" xr2:uid="{4D09F8EE-03B8-4266-9ABE-BF29521CAAED}"/>
+    <workbookView xWindow="1470" yWindow="390" windowWidth="21435" windowHeight="14940" xr2:uid="{4D09F8EE-03B8-4266-9ABE-BF29521CAAED}"/>
   </bookViews>
   <sheets>
     <sheet name="실링 작업 일지" sheetId="1" r:id="rId1"/>
@@ -285,9 +285,9 @@
   <si>
     <t xml:space="preserve">※ 불량 현황
 - Hi-pot : 
-- 무게 : 
+- 외관 : 
 - 두께 : 
-- Alignment : 
+- 기타 :  
 ※ 특이 사항
 </t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -576,164 +576,164 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1076,7 +1076,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="A43" sqref="A43:L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1085,17 +1085,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1107,57 +1107,57 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1179,74 +1179,74 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="9" t="s">
+      <c r="F7" s="34"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="9" t="s">
+      <c r="F9" s="34"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="7" t="s">
+      <c r="J9" s="34"/>
+      <c r="K9" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="7"/>
+      <c r="L9" s="58"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -1265,74 +1265,74 @@
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="23"/>
+      <c r="E12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="9" t="s">
+      <c r="F12" s="23"/>
+      <c r="G12" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="11" t="s">
+      <c r="H12" s="34"/>
+      <c r="I12" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="9" t="s">
+      <c r="J12" s="23"/>
+      <c r="K12" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="9"/>
+      <c r="L12" s="34"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -1351,136 +1351,136 @@
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="14" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="21" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="14" t="s">
+      <c r="F17" s="42"/>
+      <c r="G17" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="25" t="s">
+      <c r="H17" s="20"/>
+      <c r="I17" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="J17" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="15"/>
+      <c r="L17" s="20"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="17"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -1499,168 +1499,168 @@
       <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="14" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="25" t="s">
+      <c r="D26" s="20"/>
+      <c r="E26" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="39" t="s">
+      <c r="F26" s="42"/>
+      <c r="G26" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="40"/>
-      <c r="I26" s="21" t="s">
+      <c r="H26" s="46"/>
+      <c r="I26" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="22"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="42"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="24"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="44"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="32"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="36"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="34"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="38"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="32"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="36"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="34"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="38"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="32"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="36"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="34"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="38"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="11" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
+      <c r="D34" s="23"/>
+      <c r="E34" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="19" t="s">
+      <c r="F34" s="23"/>
+      <c r="G34" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="29"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="26"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="30"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="29"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
@@ -1679,38 +1679,38 @@
       <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="12" t="s">
+      <c r="B37" s="16"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="12" t="s">
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="J37" s="12"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="46"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="17"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
@@ -1729,38 +1729,38 @@
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="12" t="s">
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="12" t="s">
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J40" s="12"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
@@ -1779,186 +1779,107 @@
       <c r="L42" s="5"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="59" t="s">
+      <c r="A43" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="52"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="53"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="55"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="12"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="53"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="55"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="12"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="53"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="55"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="12"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="53"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="55"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="12"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="53"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="55"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="12"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="56"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="57"/>
-      <c r="L49" s="58"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="A43:L49"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:H41"/>
-    <mergeCell ref="I40:J41"/>
-    <mergeCell ref="K40:L41"/>
-    <mergeCell ref="K37:L38"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:L35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:F38"/>
-    <mergeCell ref="G37:H38"/>
-    <mergeCell ref="I37:J38"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:H31"/>
-    <mergeCell ref="I30:L31"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="I32:L33"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:H27"/>
-    <mergeCell ref="I26:L27"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:H29"/>
-    <mergeCell ref="I28:L29"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="G23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K17:L18"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="G19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:L20"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="I14:J15"/>
     <mergeCell ref="K9:L10"/>
     <mergeCell ref="A1:I5"/>
     <mergeCell ref="J2:J4"/>
@@ -1975,6 +1896,85 @@
     <mergeCell ref="E9:F10"/>
     <mergeCell ref="G9:H10"/>
     <mergeCell ref="I9:J10"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:H29"/>
+    <mergeCell ref="I28:L29"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:H27"/>
+    <mergeCell ref="I26:L27"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="I32:L33"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:H31"/>
+    <mergeCell ref="I30:L31"/>
+    <mergeCell ref="K37:L38"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:L35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:F38"/>
+    <mergeCell ref="G37:H38"/>
+    <mergeCell ref="I37:J38"/>
+    <mergeCell ref="A43:L49"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:H41"/>
+    <mergeCell ref="I40:J41"/>
+    <mergeCell ref="K40:L41"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/common/templates/11.Sealing.xlsx
+++ b/src/common/templates/11.Sealing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00C342F-196E-4DBF-AEAA-14E9C6E810EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F643C389-3D16-46B9-A0FB-D0DC3EB52532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="390" windowWidth="21435" windowHeight="14940" xr2:uid="{4D09F8EE-03B8-4266-9ABE-BF29521CAAED}"/>
+    <workbookView xWindow="-19185" yWindow="435" windowWidth="21435" windowHeight="14940" xr2:uid="{4D09F8EE-03B8-4266-9ABE-BF29521CAAED}"/>
   </bookViews>
   <sheets>
     <sheet name="실링 작업 일지" sheetId="1" r:id="rId1"/>
@@ -554,186 +554,189 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1075,27 +1078,27 @@
   </sheetPr>
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:L49"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="12" width="9" style="6"/>
+    <col min="10" max="12" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1107,779 +1110,865 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="5"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="34" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="34" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="34" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="34" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="58" t="s">
+      <c r="J9" s="5"/>
+      <c r="K9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="58"/>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="5"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="60"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="34" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="23" t="s">
+      <c r="H12" s="5"/>
+      <c r="I12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="34" t="s">
+      <c r="J12" s="7"/>
+      <c r="K12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="34"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="34" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="60"/>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="49" t="s">
+      <c r="D17" s="11"/>
+      <c r="E17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="19" t="s">
+      <c r="F17" s="18"/>
+      <c r="G17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="41" t="s">
+      <c r="H17" s="11"/>
+      <c r="I17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="41" t="s">
+      <c r="J17" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="K17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="20"/>
+      <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="28"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="30"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="28"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="30"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="28"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="30"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="5"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="60"/>
     </row>
     <row r="26" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="19" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="41" t="s">
+      <c r="D26" s="11"/>
+      <c r="E26" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="45" t="s">
+      <c r="F26" s="18"/>
+      <c r="G26" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="46"/>
-      <c r="I26" s="49" t="s">
+      <c r="H26" s="36"/>
+      <c r="I26" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="42"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="18"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="44"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="20"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="36"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="28"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="38"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="30"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="36"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="28"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="38"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="30"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="36"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="28"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="38"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="30"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="23" t="s">
+      <c r="B34" s="11"/>
+      <c r="C34" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23" t="s">
+      <c r="D34" s="7"/>
+      <c r="E34" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="24" t="s">
+      <c r="F34" s="7"/>
+      <c r="G34" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="26"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="25"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="29"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="26"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="5"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="60"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="16" t="s">
+      <c r="B37" s="8"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="16" t="s">
+      <c r="F37" s="8"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J37" s="16"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="17"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="42"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="5"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="60"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="16" t="s">
+      <c r="B40" s="8"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="16" t="s">
+      <c r="F40" s="8"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J40" s="16"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="5"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="60"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="9"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="49"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="12"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="52"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="12"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="52"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="12"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="52"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="12"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="52"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="12"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="52"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="15"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="95">
+  <mergeCells count="102">
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A39:L39"/>
+    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A43:L49"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:H41"/>
+    <mergeCell ref="I40:J41"/>
+    <mergeCell ref="K40:L41"/>
+    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="K37:L38"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:L35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:F38"/>
+    <mergeCell ref="G37:H38"/>
+    <mergeCell ref="I37:J38"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:H31"/>
+    <mergeCell ref="I30:L31"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="I32:L33"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:H27"/>
+    <mergeCell ref="I26:L27"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:H29"/>
+    <mergeCell ref="I28:L29"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="I14:J15"/>
     <mergeCell ref="K9:L10"/>
     <mergeCell ref="A1:I5"/>
     <mergeCell ref="J2:J4"/>
@@ -1896,85 +1985,6 @@
     <mergeCell ref="E9:F10"/>
     <mergeCell ref="G9:H10"/>
     <mergeCell ref="I9:J10"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="K17:L18"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="G19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:L20"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="G23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:H29"/>
-    <mergeCell ref="I28:L29"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:H27"/>
-    <mergeCell ref="I26:L27"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="I32:L33"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:H31"/>
-    <mergeCell ref="I30:L31"/>
-    <mergeCell ref="K37:L38"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:L35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:F38"/>
-    <mergeCell ref="G37:H38"/>
-    <mergeCell ref="I37:J38"/>
-    <mergeCell ref="A43:L49"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:H41"/>
-    <mergeCell ref="I40:J41"/>
-    <mergeCell ref="K40:L41"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/common/templates/11.Sealing.xlsx
+++ b/src/common/templates/11.Sealing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F643C389-3D16-46B9-A0FB-D0DC3EB52532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456E1B34-886B-46A8-B7B4-111BB289854F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19185" yWindow="435" windowWidth="21435" windowHeight="14940" xr2:uid="{4D09F8EE-03B8-4266-9ABE-BF29521CAAED}"/>
+    <workbookView xWindow="1035" yWindow="90" windowWidth="21195" windowHeight="14940" xr2:uid="{4D09F8EE-03B8-4266-9ABE-BF29521CAAED}"/>
   </bookViews>
   <sheets>
     <sheet name="실링 작업 일지" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,8 @@
     <definedName name="pouchManufacturer">'실링 작업 일지'!$E$14</definedName>
     <definedName name="pouchUsage">'실링 작업 일지'!$K$14</definedName>
     <definedName name="productionId">'실링 작업 일지'!$G$7</definedName>
-    <definedName name="remark">'실링 작업 일지'!$A$43</definedName>
+    <definedName name="remarkSide">'실링 작업 일지'!$G$43</definedName>
+    <definedName name="remarkTop">'실링 작업 일지'!$A$43</definedName>
     <definedName name="reviewer">'실링 작업 일지'!$K$5</definedName>
     <definedName name="safety">'실링 작업 일지'!$K$40</definedName>
     <definedName name="shift">'실링 작업 일지'!$K$9</definedName>
@@ -89,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>실링 작업 일지</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -283,13 +284,21 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">※ 불량 현황
-- Hi-pot : 
+    <t xml:space="preserve">※ Top 불량 현황
+- Seal 돌출 : 
+- 파우치 두께 : 
+- 탑실 두께 : 
 - 외관 : 
-- 두께 : 
-- 기타 :  
-※ 특이 사항
-</t>
+- 기타 : </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">※ Side 불량 현황
+- 파우치 두께 : 
+- 실 폭 : 
+- 외관 : 
+- H-pot : 
+- 기타 : </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -379,7 +388,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -527,24 +536,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -554,7 +545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -564,179 +555,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1078,8 +1045,8 @@
   </sheetPr>
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:H27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1088,17 +1055,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1110,786 +1077,867 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="60"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="5" t="s">
+      <c r="F7" s="24"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="5" t="s">
+      <c r="F9" s="24"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="3" t="s">
+      <c r="J9" s="24"/>
+      <c r="K9" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="50"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="60"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="5" t="s">
+      <c r="F12" s="13"/>
+      <c r="G12" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="7" t="s">
+      <c r="H12" s="24"/>
+      <c r="I12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="5" t="s">
+      <c r="J12" s="13"/>
+      <c r="K12" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="5"/>
+      <c r="L12" s="24"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="60"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="17" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="10" t="s">
+      <c r="F17" s="32"/>
+      <c r="G17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="21" t="s">
+      <c r="H17" s="10"/>
+      <c r="I17" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="56" t="s">
+      <c r="J17" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="11"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="13"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="12"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="28"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="30"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="28"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="28"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="26"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="30"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="28"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="28"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="26"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="30"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="28"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="60"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="10" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="21" t="s">
+      <c r="D26" s="10"/>
+      <c r="E26" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="32"/>
       <c r="G26" s="35" t="s">
         <v>33</v>
       </c>
       <c r="H26" s="36"/>
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="18"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="32"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="34"/>
       <c r="G27" s="37"/>
       <c r="H27" s="38"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="20"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="34"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="28"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="26"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="30"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="28"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="28"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="26"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="30"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="28"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="28"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="26"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="30"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="28"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7" t="s">
+      <c r="D34" s="13"/>
+      <c r="E34" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="15" t="s">
+      <c r="F34" s="13"/>
+      <c r="G34" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="25"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="16"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="26"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="19"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="60"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="8" t="s">
+      <c r="B37" s="6"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="8" t="s">
+      <c r="F37" s="6"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J37" s="8"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="42"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="7"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="58" t="s">
+      <c r="A39" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="60"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="8" t="s">
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="8" t="s">
+      <c r="F40" s="6"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J40" s="8"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="58" t="s">
+      <c r="A42" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="60"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="47" t="s">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="5"/>
+    </row>
+    <row r="43" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="49"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="50"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
       <c r="L44" s="52"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="50"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
       <c r="L45" s="52"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="50"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
       <c r="L46" s="52"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="50"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
       <c r="L47" s="52"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="50"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
       <c r="L48" s="52"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="53"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="55"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="103">
+    <mergeCell ref="A43:F49"/>
+    <mergeCell ref="G43:L49"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="A1:I5"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:H27"/>
+    <mergeCell ref="I26:L27"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:H29"/>
+    <mergeCell ref="I28:L29"/>
+    <mergeCell ref="G37:H38"/>
+    <mergeCell ref="I37:J38"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:H31"/>
+    <mergeCell ref="I30:L31"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="I32:L33"/>
     <mergeCell ref="A6:L6"/>
     <mergeCell ref="A39:L39"/>
     <mergeCell ref="A36:L36"/>
     <mergeCell ref="A25:L25"/>
     <mergeCell ref="A16:L16"/>
     <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A43:L49"/>
     <mergeCell ref="A40:B41"/>
     <mergeCell ref="C40:D41"/>
     <mergeCell ref="E40:F41"/>
@@ -1907,84 +1955,6 @@
     <mergeCell ref="A37:B38"/>
     <mergeCell ref="C37:D38"/>
     <mergeCell ref="E37:F38"/>
-    <mergeCell ref="G37:H38"/>
-    <mergeCell ref="I37:J38"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:H31"/>
-    <mergeCell ref="I30:L31"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="I32:L33"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:H27"/>
-    <mergeCell ref="I26:L27"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:H29"/>
-    <mergeCell ref="I28:L29"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="G23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K17:L18"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="G19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:L20"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="A1:I5"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="I9:J10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/common/templates/11.Sealing.xlsx
+++ b/src/common/templates/11.Sealing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456E1B34-886B-46A8-B7B4-111BB289854F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A61786-560E-4AC9-B0B3-E2E5758DE9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="90" windowWidth="21195" windowHeight="14940" xr2:uid="{4D09F8EE-03B8-4266-9ABE-BF29521CAAED}"/>
+    <workbookView xWindow="5085" yWindow="540" windowWidth="13200" windowHeight="14940" xr2:uid="{4D09F8EE-03B8-4266-9ABE-BF29521CAAED}"/>
   </bookViews>
   <sheets>
     <sheet name="실링 작업 일지" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>실링 작업 일지</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -299,6 +299,22 @@
 - 외관 : 
 - H-pot : 
 - 기타 : </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>25°C / 50%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>양호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상없음</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -555,6 +571,132 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -564,48 +706,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -617,93 +720,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1045,8 +1061,8 @@
   </sheetPr>
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1055,17 +1071,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1077,781 +1093,870 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="5"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="47"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="24" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="24" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="24" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="24" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="50" t="s">
+      <c r="J9" s="6"/>
+      <c r="K9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="50"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="5"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="47"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="24" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="13" t="s">
+      <c r="H12" s="6"/>
+      <c r="I12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="24" t="s">
+      <c r="J12" s="8"/>
+      <c r="K12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="24"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="5"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="47"/>
     </row>
     <row r="17" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="39" t="s">
+      <c r="D17" s="12"/>
+      <c r="E17" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="9" t="s">
+      <c r="F17" s="25"/>
+      <c r="G17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="31" t="s">
+      <c r="H17" s="12"/>
+      <c r="I17" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="46" t="s">
+      <c r="J17" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="10"/>
+      <c r="L17" s="12"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="12"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="21"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="28"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="26"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="21"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="28"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="26"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="21"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="28"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="5"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="47"/>
     </row>
     <row r="26" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="12"/>
+      <c r="C26" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="31" t="s">
+      <c r="D26" s="12"/>
+      <c r="E26" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="35" t="s">
+      <c r="F26" s="25"/>
+      <c r="G26" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="36"/>
-      <c r="I26" s="39" t="s">
+      <c r="H26" s="33"/>
+      <c r="I26" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="32"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="25"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="34"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="27"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="26"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="21"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="28"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="28"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="23"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="26"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="21"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="17"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="28"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="28"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="23"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="26"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="21"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="17"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="28"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="28"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="23"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="13" t="s">
+      <c r="B34" s="12"/>
+      <c r="C34" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13" t="s">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="14" t="s">
+      <c r="F34" s="8"/>
+      <c r="G34" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="16"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="38"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="23"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="52"/>
       <c r="G35" s="17"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="19"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="39"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="5"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="47"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="6" t="s">
+      <c r="B37" s="9"/>
+      <c r="C37" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="44"/>
+      <c r="E37" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="6" t="s">
+      <c r="F37" s="9"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J37" s="6"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="7"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="L37" s="44"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="5"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="47"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="6" t="s">
+      <c r="B40" s="9"/>
+      <c r="C40" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="44"/>
+      <c r="E40" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="6" t="s">
+      <c r="F40" s="9"/>
+      <c r="G40" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="44"/>
+      <c r="I40" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="J40" s="6"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="L40" s="44"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="5"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="47"/>
     </row>
     <row r="43" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52" t="s">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="52"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="52"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="52"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="52"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="52"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="52"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="52"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="52"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="52"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="52"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="52"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="52"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="52"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="52"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="103">
+    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="K37:L38"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:L35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:F38"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A39:L39"/>
+    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:H41"/>
+    <mergeCell ref="I40:J41"/>
+    <mergeCell ref="K40:L41"/>
+    <mergeCell ref="G37:H38"/>
+    <mergeCell ref="I37:J38"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:H31"/>
+    <mergeCell ref="I30:L31"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="I32:L33"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:H27"/>
+    <mergeCell ref="I26:L27"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:H29"/>
+    <mergeCell ref="I28:L29"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
     <mergeCell ref="A43:F49"/>
     <mergeCell ref="G43:L49"/>
     <mergeCell ref="K9:L10"/>
@@ -1876,85 +1981,6 @@
     <mergeCell ref="E12:F13"/>
     <mergeCell ref="G12:H13"/>
     <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="K17:L18"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="G19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:L20"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="G23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:H27"/>
-    <mergeCell ref="I26:L27"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:H29"/>
-    <mergeCell ref="I28:L29"/>
-    <mergeCell ref="G37:H38"/>
-    <mergeCell ref="I37:J38"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:H31"/>
-    <mergeCell ref="I30:L31"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="I32:L33"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="A36:L36"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:H41"/>
-    <mergeCell ref="I40:J41"/>
-    <mergeCell ref="K40:L41"/>
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="K37:L38"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:L35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:F38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
